--- a/Oregon/Regulatory/ORre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Oregon/Regulatory/ORre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08DCD4-5BBE-4B69-ACED-49BDF0E0D8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78CEDD-F6BB-4E5C-AFBC-4A80D700ADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
@@ -1543,7 +1543,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B22:B23"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G21:G22"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>132</v>
       </c>
@@ -3092,8 +3092,8 @@
       <c r="E10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>159</v>
+      <c r="F10" s="120" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="63" t="s">
         <v>30</v>
@@ -3280,8 +3280,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L12">
     <sortCondition ref="A4:A12"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{6F8CB012-1830-451F-85CA-D367BD326942}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
